--- a/resources/Forms/group_entry.xlsx
+++ b/resources/Forms/group_entry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0866AC00-CB9A-2C43-B696-D2673E4C69F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F46A1E-8335-1742-AD36-16AAF48072D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{8BE4C4F6-09A5-E743-BA1D-FD94CDD7FD29}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16300" xr2:uid="{8BE4C4F6-09A5-E743-BA1D-FD94CDD7FD29}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Stage" sheetId="1" r:id="rId1"/>
@@ -238,9 +238,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -248,6 +245,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,621 +564,621 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B41724B-A8CA-354F-B975-02601A27EE9A}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
       <selection sqref="A1:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="2" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -1186,6 +1186,11 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/Forms/group_entry.xlsx
+++ b/resources/Forms/group_entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F46A1E-8335-1742-AD36-16AAF48072D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1507BC05-1705-ED40-8A14-4C7E633AC4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16300" xr2:uid="{8BE4C4F6-09A5-E743-BA1D-FD94CDD7FD29}"/>
+    <workbookView xWindow="7520" yWindow="500" windowWidth="10000" windowHeight="16280" xr2:uid="{8BE4C4F6-09A5-E743-BA1D-FD94CDD7FD29}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Stage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t>Match Day 1 - Nov 20</t>
   </si>
@@ -173,13 +173,19 @@
     <t>Korea Republic</t>
   </si>
   <si>
-    <t>Match Day 10 - Nov 30</t>
-  </si>
-  <si>
-    <t>Match Day 11 - Dec 1</t>
-  </si>
-  <si>
-    <t>Match Day 12 - Dec 2</t>
+    <t>Sengal</t>
+  </si>
+  <si>
+    <t>Match Day 10 - Nov 29</t>
+  </si>
+  <si>
+    <t>Match Day 11 - Nov 30</t>
+  </si>
+  <si>
+    <t>Match Day 12 - Dec 1</t>
+  </si>
+  <si>
+    <t>Match Day 13 - Dec 2</t>
   </si>
 </sst>
 </file>
@@ -236,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,7 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,26 +567,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B41724B-A8CA-354F-B975-02601A27EE9A}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection sqref="A1:D67"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="3" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="4.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -595,17 +600,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -639,17 +642,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -693,17 +694,15 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -747,17 +746,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -801,17 +798,15 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -855,24 +850,22 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
@@ -909,17 +902,15 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -963,17 +954,15 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1017,169 +1006,215 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="A51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="A57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="A63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A63:D63"/>
+  <mergeCells count="13">
+    <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A9:D9"/>
@@ -1189,9 +1224,16 @@
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576" xr:uid="{71CEBB05-8BAB-0349-9BBE-60861B9917EA}">
+      <formula1>0</formula1>
+      <formula2>9</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/Forms/group_entry.xlsx
+++ b/resources/Forms/group_entry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1507BC05-1705-ED40-8A14-4C7E633AC4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBDE9F6-90DB-C944-BA10-D596A2BE56CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="500" windowWidth="10000" windowHeight="16280" xr2:uid="{8BE4C4F6-09A5-E743-BA1D-FD94CDD7FD29}"/>
+    <workbookView xWindow="7520" yWindow="500" windowWidth="24000" windowHeight="19480" xr2:uid="{8BE4C4F6-09A5-E743-BA1D-FD94CDD7FD29}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Stage" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Uraguay</t>
-  </si>
-  <si>
     <t>Korea Rupublic</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Match Day 13 - Dec 2</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
   </si>
 </sst>
 </file>
@@ -268,6 +268,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19098</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9BAE3A-7D4B-DAEE-5570-37731BB08914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638120" y="0"/>
+          <a:ext cx="3303910" cy="17397620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B41724B-A8CA-354F-B975-02601A27EE9A}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,32 +817,32 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -802,7 +851,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -840,7 +889,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -854,7 +903,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -862,7 +911,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -892,7 +941,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -906,7 +955,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -958,7 +1007,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -971,22 +1020,22 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -996,12 +1045,12 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1010,7 +1059,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1023,7 +1072,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1062,7 +1111,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1095,7 +1144,7 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1114,7 +1163,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1166,7 +1215,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1174,27 +1223,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1209,7 +1258,7 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1235,5 +1284,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/Forms/group_entry.xlsx
+++ b/resources/Forms/group_entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBDE9F6-90DB-C944-BA10-D596A2BE56CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0902A376-D173-724C-B58B-5A4B7DCD9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="500" windowWidth="24000" windowHeight="19480" xr2:uid="{8BE4C4F6-09A5-E743-BA1D-FD94CDD7FD29}"/>
+    <workbookView xWindow="7520" yWindow="500" windowWidth="24000" windowHeight="19460" xr2:uid="{8BE4C4F6-09A5-E743-BA1D-FD94CDD7FD29}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Stage" sheetId="1" r:id="rId1"/>
@@ -268,55 +268,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19098</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>152357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9BAE3A-7D4B-DAEE-5570-37731BB08914}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3638120" y="0"/>
-          <a:ext cx="3303910" cy="17397620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1284,6 +1235,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>